--- a/doc/接口文档.xlsx
+++ b/doc/接口文档.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\mywork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\gmh-web\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,32 @@
   </si>
   <si>
     <t>员工管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff/insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email
+storeId
+staffLevel 前台是1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张鹏飞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,11 +577,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -654,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -692,7 +718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
@@ -711,6 +737,26 @@
       </c>
       <c r="G7" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口文档.xlsx
+++ b/doc/接口文档.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,229 @@
   </si>
   <si>
     <t>张鹏飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美容项分类管理
+projectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/projectType/getAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ProjectTypeVo&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectTypeVo类包括：
+id
+topType 
+ typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topType 
+顶层分类：
+1：美甲
+2：美睫
+3：美容
+4：产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/projectType/insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topType 
+ typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/projectType/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id
+topType 
+ typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/projectType/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美容项目管理
+project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/getAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ProjectVo&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectVo实体类包括
+typeId
+projectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据类型获取所有项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/getByType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId
+projectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存分类管理
+stockType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/stockType/getAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/stockType/insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/stockType/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/stockType/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;StockTypeVo&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StockTypeVo实体类包括
+id
+typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/stock/getAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/stock/insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/stock/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/stock/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据类型获取所有库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/stock/getByType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;StockVo&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StockVo实体类包括
+id
+typeId
+stockName
+unit
+amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId
+stockName
+unit
+amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,25 +800,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="2"/>
     <col min="2" max="2" width="18.08203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.9140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="2"/>
     <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="2"/>
+    <col min="6" max="6" width="18.08203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="2"/>
+    <col min="8" max="8" width="23.4140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -617,8 +843,11 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -638,7 +867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -659,7 +888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="70" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -680,7 +909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -701,7 +930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -718,7 +947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
@@ -739,7 +968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -759,10 +988,256 @@
         <v>39</v>
       </c>
     </row>
+    <row r="9" spans="1:9" ht="84" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/接口文档.xlsx
+++ b/doc/接口文档.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,30 +137,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取所有员工信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增员工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/employee/getAll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;EmployeeVo&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/employee/insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emName
-sex
-phone
-jobId 可以是数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,6 +403,53 @@
 stockName
 unit
 amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有员工信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/employee/listByPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum
+pageSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/employee/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/employee/leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emName
+sex
+phone
+jobId 可以是数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emName
+sex
+phone
+jobId 可以是数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,11 +832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -844,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.3">
@@ -930,314 +962,341 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="84" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="84" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="H15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>76</v>
+      <c r="E18" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F25" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/接口文档.xlsx
+++ b/doc/接口文档.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>/shop/getAll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;ShopVo&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -450,6 +446,49 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有店铺分页list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shop/listByPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum
+pageSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum
+pageSize
+searchString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ShopVo&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;ShopVo&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shop/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopVo实体包括
+id
+shopName
+manager
+phone
+address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,11 +871,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -855,7 +894,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -876,12 +915,12 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -890,413 +929,452 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
+      <c r="H2" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="70" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="56" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="2" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="84" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="84" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/接口文档.xlsx
+++ b/doc/接口文档.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,12 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pageNum
-pageSize
-searchString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;ShopVo&gt;</t>
   </si>
   <si>
@@ -489,6 +483,53 @@
   </si>
   <si>
     <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/projectType/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/employee/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum
+pageSize
+searchString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum
+pageSize
+searchString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/stockType/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/stock/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum
+pageSize
+typeId
+searchString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,11 +912,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -932,13 +973,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.3">
@@ -1019,25 +1060,25 @@
         <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28" x14ac:dyDescent="0.3">
@@ -1060,321 +1101,369 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="84" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:9" ht="84" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="H19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A8:A11"/>
     <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
